--- a/Questionari/NPS/NPS-Foglio di calcolo.xlsx
+++ b/Questionari/NPS/NPS-Foglio di calcolo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\IUM progetto\Progetto-IUM-21-22\Questionari\NPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuse\Desktop\Importanti\Università\3° Anno\IUM\Progetto IUM 21-22\Questionari\NPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0ACA1C-5EEC-4EC4-9A35-11868538C860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D56985-83B8-4913-B6E8-B803016CA0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="9990" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1716" windowWidth="21816" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="1" r:id="rId1"/>
@@ -509,9 +509,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1">
@@ -520,7 +520,7 @@
       </c>
       <c r="B1" s="10"/>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="13.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75">
+    <row r="3" spans="1:2" ht="13.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -536,23 +536,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75">
+    <row r="4" spans="1:2" ht="13.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="12.75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="12.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -560,16 +560,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25">
+    <row r="7" spans="1:2" ht="13.2">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6">
         <f>COUNTIFS(B3:B6,"&gt;8",B3:B6, "&lt;11")/COUNTA(B3:B6)*100</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -578,31 +578,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25">
+    <row r="9" spans="1:2" ht="13.2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6">
         <f>COUNTIFS(B2:B6,"&gt;=1",B2:B6, "&lt;7")/COUNTA(B5:B8)*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="12.75"/>
-    <row r="11" spans="1:2" ht="17.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.2"/>
+    <row r="11" spans="1:2" ht="13.2">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="8">
         <f>B7-B9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="12.75"/>
-    <row r="13" spans="1:2" ht="12.75"/>
-    <row r="14" spans="1:2" ht="12.75"/>
-    <row r="15" spans="1:2" ht="12.75"/>
-    <row r="16" spans="1:2" ht="12.75"/>
-    <row r="18" ht="12.75"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.2"/>
+    <row r="13" spans="1:2" ht="13.2"/>
+    <row r="14" spans="1:2" ht="13.2"/>
+    <row r="15" spans="1:2" ht="13.2"/>
+    <row r="16" spans="1:2" ht="13.2"/>
+    <row r="18" ht="13.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
